--- a/增殖站/循环水/接口完成情况.xlsx
+++ b/增殖站/循环水/接口完成情况.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>开发接口</t>
   </si>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>PUT:threshold/:stationId(修改指定传感器的阈值)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +445,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -523,6 +527,9 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
